--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>arg1</t>
   </si>
@@ -41,46 +41,106 @@
     <t>pred4</t>
   </si>
   <si>
-    <t>(_214:Expression {id: '33', s_id: '8', text: 'of the latter'})</t>
-  </si>
-  <si>
-    <t>(_213:Expression {id: '35', s_id: '8', text: 'of the former Man'})</t>
-  </si>
-  <si>
-    <t>(_219:Expression {id: '28', s_id: '8', text: 'Examples of the former Man , Ox , Runs , Wins'})</t>
-  </si>
-  <si>
-    <t>(_220:Expression {id: '23', s_id: '8', text: 'Examples of the latter ,'})</t>
-  </si>
-  <si>
-    <t>(_309:Expression {id: '32', s_id: '8', text: 'Examples of the latter'})</t>
-  </si>
-  <si>
-    <t>(_308:Expression {id: '34', s_id: '8', text: 'Examples of the former Man'})</t>
-  </si>
-  <si>
-    <t>(_312:Expression {id: '36', s_id: '8', text: 'Examples of the former are such expressions as Man , Ox , Runs , Wins'})</t>
-  </si>
-  <si>
-    <t>(_313:Expression {id: '37', s_id: '8', text: 'Examples of the latter are such expressions as Themanruns , Themanwins , .'})</t>
-  </si>
-  <si>
-    <t>(_216:Expression {id: '15', s_id: '8', text: 'such expressions as Themanruns'})</t>
-  </si>
-  <si>
-    <t>(_215:Expression {id: '20', s_id: '8', text: 'such expressions as'})</t>
-  </si>
-  <si>
-    <t>(_311:Expression {id: '12', s_id: '8', text: 'Examples of the latter are such expressions as Themanruns'})</t>
-  </si>
-  <si>
-    <t>(_310:Expression {id: '17', s_id: '8', text: 'Examples of the former are such expressions as Man'})</t>
-  </si>
-  <si>
-    <t>(_218:Expression {id: '26', s_id: '8', text: 'Themanruns , Themanwins'})</t>
-  </si>
-  <si>
-    <t>(_217:Expression {id: '31', s_id: '8', text: 'Man , Ox , Runs , Wins'})</t>
+    <t>the definition corresponding with the name</t>
+  </si>
+  <si>
+    <t>both the name and the definition answering to the name in common</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Things are said to be named Equivocally when , though they have a common name , the definition corresponding with the name differs for each .</t>
+  </si>
+  <si>
+    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
+  </si>
+  <si>
+    <t>though they have a common name</t>
+  </si>
+  <si>
+    <t>Things are said to be named Derivatively , which derive their name from some other name , but differ from it in termination .</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>which have both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>to be which derive their name from some other name</t>
+  </si>
+  <si>
+    <t>the grammarian</t>
+  </si>
+  <si>
+    <t>Thus the grammarian derives his name from the word Grammar</t>
+  </si>
+  <si>
+    <t>their name</t>
+  </si>
+  <si>
+    <t>his name</t>
+  </si>
+  <si>
+    <t>Thus , the grammarian derives his name from the word Grammar , and the courageous man from the word Courage .</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>Thus , a real man and a figure in a picture can both lay claim to the name Animal , yet these are equivocally so named , for , though they have a common name , the definition corresponding with the name differs for each .</t>
+  </si>
+  <si>
+    <t>the name</t>
+  </si>
+  <si>
+    <t>the word Grammar</t>
+  </si>
+  <si>
+    <t>of the former Man</t>
+  </si>
+  <si>
+    <t>of the latter</t>
+  </si>
+  <si>
+    <t>Examples of the latter ,</t>
+  </si>
+  <si>
+    <t>Examples of the former Man , Ox , Runs , Wins</t>
+  </si>
+  <si>
+    <t>Examples of the former Man</t>
+  </si>
+  <si>
+    <t>Examples of the latter</t>
+  </si>
+  <si>
+    <t>Examples of the latter are such expressions as Themanruns , Themanwins , .</t>
+  </si>
+  <si>
+    <t>Examples of the former are such expressions as Man , Ox , Runs , Wins</t>
+  </si>
+  <si>
+    <t>such expressions as</t>
+  </si>
+  <si>
+    <t>such expressions as Themanruns</t>
+  </si>
+  <si>
+    <t>Examples of the former are such expressions as Man</t>
+  </si>
+  <si>
+    <t>Examples of the latter are such expressions as Themanruns</t>
+  </si>
+  <si>
+    <t>Man , Ox , Runs , Wins</t>
+  </si>
+  <si>
+    <t>Themanruns , Themanwins</t>
   </si>
 </sst>
 </file>
@@ -429,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,28 +557,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -526,28 +586,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -555,28 +615,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -584,28 +644,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -613,28 +673,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -642,28 +702,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -671,28 +731,115 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,19 +15,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>arg1</t>
+  </si>
+  <si>
+    <t>arg2</t>
+  </si>
+  <si>
+    <t>arg3</t>
+  </si>
+  <si>
+    <t>arg4</t>
+  </si>
+  <si>
+    <t>pred1</t>
+  </si>
+  <si>
+    <t>pred2</t>
+  </si>
+  <si>
+    <t>pred3</t>
+  </si>
+  <si>
+    <t>pred4</t>
+  </si>
+  <si>
+    <t>to the name</t>
+  </si>
+  <si>
+    <t>their name</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
+  </si>
+  <si>
+    <t>Things are said to be named Derivatively , which derive their name from some other name , but differ from it in termination .</t>
+  </si>
+  <si>
+    <t>both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>to be which derive their name from some other name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,12 +98,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,14 +411,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>arg1</t>
   </si>
@@ -41,28 +41,67 @@
     <t>pred4</t>
   </si>
   <si>
-    <t>to the name</t>
+    <t>things</t>
+  </si>
+  <si>
+    <t>Things</t>
+  </si>
+  <si>
+    <t>both the name and the definition answering to the name in common</t>
   </si>
   <si>
     <t>their name</t>
   </si>
   <si>
+    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
+  </si>
+  <si>
+    <t>Things are said to be named Derivatively , which derive their name from some other name , but differ from it in termination .</t>
+  </si>
+  <si>
+    <t>which have both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>to be which derive their name from some other name</t>
+  </si>
+  <si>
+    <t>both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>the other hand</t>
+  </si>
+  <si>
+    <t>some other name</t>
+  </si>
+  <si>
+    <t>the name</t>
+  </si>
+  <si>
+    <t>a common name</t>
+  </si>
+  <si>
+    <t>though they have a common name</t>
+  </si>
+  <si>
+    <t>Things are said to be named Equivocally when the definition corresponding with the name differs for each</t>
+  </si>
+  <si>
+    <t>Things are said to be named Derivatively</t>
+  </si>
+  <si>
+    <t>when the definition corresponding with the name differs for each</t>
+  </si>
+  <si>
+    <t>Things are differ from it in termination</t>
+  </si>
+  <si>
+    <t>the definition corresponding with the name</t>
+  </si>
+  <si>
+    <t>Things are said to be named Equivocally when , though they have a common name , the definition corresponding with the name differs for each .</t>
+  </si>
+  <si>
     <t>common</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
-  </si>
-  <si>
-    <t>Things are said to be named Derivatively , which derive their name from some other name , but differ from it in termination .</t>
-  </si>
-  <si>
-    <t>both the name answering to the name in common</t>
-  </si>
-  <si>
-    <t>to be which derive their name from some other name</t>
   </si>
 </sst>
 </file>
@@ -411,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +513,876 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>arg1</t>
   </si>
@@ -41,67 +41,85 @@
     <t>pred4</t>
   </si>
   <si>
+    <t>Things</t>
+  </si>
+  <si>
     <t>things</t>
   </si>
   <si>
-    <t>Things</t>
+    <t>the definition corresponding with the name</t>
+  </si>
+  <si>
+    <t>answering to the name in common</t>
+  </si>
+  <si>
+    <t>when the definition corresponding with the name differs for each</t>
+  </si>
+  <si>
+    <t>both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>Things are said to be named Equivocally when , though they have a common name , the definition corresponding with the name differs for each .</t>
+  </si>
+  <si>
+    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
   </si>
   <si>
     <t>both the name and the definition answering to the name in common</t>
   </si>
   <si>
+    <t>a common name</t>
+  </si>
+  <si>
+    <t>the other hand</t>
+  </si>
+  <si>
+    <t>Things are said to be named Equivocally when the definition corresponding with the name differs for each</t>
+  </si>
+  <si>
+    <t>On the other hand things are said to be named Univocally which have both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>which have both the name answering to the name in common</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>their name</t>
   </si>
   <si>
-    <t>On the other hand , things are said to be named Univocally which have both the name and the definition answering to the name in common .</t>
+    <t>Things are differ from it in termination</t>
+  </si>
+  <si>
+    <t>some other name</t>
+  </si>
+  <si>
+    <t>the name</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>though they have a common name</t>
   </si>
   <si>
     <t>Things are said to be named Derivatively , which derive their name from some other name , but differ from it in termination .</t>
   </si>
   <si>
-    <t>which have both the name answering to the name in common</t>
-  </si>
-  <si>
     <t>to be which derive their name from some other name</t>
   </si>
   <si>
-    <t>both the name answering to the name in common</t>
-  </si>
-  <si>
-    <t>the other hand</t>
-  </si>
-  <si>
-    <t>some other name</t>
-  </si>
-  <si>
-    <t>the name</t>
-  </si>
-  <si>
-    <t>a common name</t>
-  </si>
-  <si>
-    <t>though they have a common name</t>
-  </si>
-  <si>
-    <t>Things are said to be named Equivocally when the definition corresponding with the name differs for each</t>
+    <t>to be named Equivocally when the definition corresponding with the name differs for each</t>
+  </si>
+  <si>
+    <t>with the name</t>
   </si>
   <si>
     <t>Things are said to be named Derivatively</t>
-  </si>
-  <si>
-    <t>when the definition corresponding with the name differs for each</t>
-  </si>
-  <si>
-    <t>Things are differ from it in termination</t>
-  </si>
-  <si>
-    <t>the definition corresponding with the name</t>
-  </si>
-  <si>
-    <t>Things are said to be named Equivocally when , though they have a common name , the definition corresponding with the name differs for each .</t>
-  </si>
-  <si>
-    <t>common</t>
   </si>
 </sst>
 </file>
@@ -450,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -536,10 +554,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -556,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -582,16 +600,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -605,28 +623,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -634,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -663,28 +681,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -692,28 +710,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -721,28 +739,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -750,28 +768,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -779,25 +797,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
@@ -808,28 +826,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -837,28 +855,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -866,28 +884,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -895,28 +913,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -924,28 +942,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -953,28 +971,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -982,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1011,28 +1029,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1040,28 +1058,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1069,28 +1087,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1098,28 +1116,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1127,28 +1145,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1156,28 +1174,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1185,28 +1203,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1214,28 +1232,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1243,28 +1261,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1272,28 +1290,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1301,28 +1319,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1330,28 +1348,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1359,28 +1377,2000 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s">
         <v>19</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="I85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
         <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
